--- a/test.xlsx
+++ b/test.xlsx
@@ -428,37 +428,37 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="9">
@@ -468,62 +468,62 @@
     </row>
     <row r="10">
       <c r="B10" t="n">
-        <v>0</v>
+        <v>112404</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="n">
-        <v>0</v>
+        <v>260000000</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="n">
-        <v>0</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.93846154</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="22">
@@ -533,7 +533,7 @@
     </row>
     <row r="23">
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="24">
@@ -543,187 +543,187 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>0.01427586</v>
+        <v>164671</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>0.0001</v>
+        <v>42707</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>1</v>
+        <v>1.102343986</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="n">
-        <v>164671</v>
+        <v>3.468</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>42707</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>1.102343986</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>3.468</v>
+        <v>8.314462000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>3468</v>
+        <v>573.15</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>1734</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="n">
-        <v>8.314462000000001</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>573.15</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>4.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>307</v>
+        <v>298.15</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>7462</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>15</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="n">
-        <v>298.15</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>14.8</v>
+        <v>0.0489086</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>0.1341</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>0.287</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>0.0489086</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>0.49</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>-0.96</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="n">
-        <v>0.27</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>0.105</v>
+        <v>2.435696566131349</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>3.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>0.1</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="n">
-        <v>2.435696566131349</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>7462</v>
+        <v>3.501799738406186</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>80</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="n">
-        <v>0.1</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="62">
@@ -733,177 +733,177 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3.501799738406186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>14500</v>
+        <v>284.15</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="n">
-        <v>0.0005</v>
+        <v>1.401114206</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>0.0005</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>284.15</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="n">
-        <v>1.401114206</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>1.375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>0.99</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="n">
-        <v>0.99</v>
+        <v>643.15</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>0.84</v>
+        <v>298.15</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>643.15</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>298.15</v>
+        <v>3.8e-12</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>1.1</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="n">
-        <v>1.006</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>3.8e-12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>0.718</v>
+        <v>2.5645</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="n">
-        <v>0.8</v>
+        <v>-0.0532</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="n">
-        <v>20</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="n">
-        <v>20</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="n">
-        <v>2.5645</v>
+        <v>-5e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="n">
-        <v>-0.0532</v>
+        <v>6.999999999999999e-11</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="n">
-        <v>0.0005</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="n">
-        <v>-5e-06</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="n">
-        <v>6.999999999999999e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="n">
-        <v>12</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98">
@@ -913,47 +913,47 @@
     </row>
     <row r="99">
       <c r="B99" t="n">
-        <v>500000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="n">
-        <v>287</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="n">
-        <v>305.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="n">
-        <v>100</v>
+        <v>63840000</v>
       </c>
     </row>
     <row r="108">
@@ -963,7 +963,7 @@
     </row>
     <row r="109">
       <c r="B109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
@@ -978,27 +978,27 @@
     </row>
     <row r="112">
       <c r="B112" t="n">
-        <v>63840000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1053,32 +1053,32 @@
     </row>
     <row r="127">
       <c r="B127" t="n">
-        <v>1</v>
+        <v>63840000</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="n">
-        <v>63840000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
